--- a/src/test/java/com/catapult/excel/parsing/format-test.xlsx
+++ b/src/test/java/com/catapult/excel/parsing/format-test.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Scenario8" sheetId="10" state="hidden" r:id="rId8"/>
     <sheet name="Scenario9" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="39">
   <si>
     <t>yrdyry</t>
   </si>
@@ -137,6 +137,9 @@
   <si>
     <t>yrdyry3</t>
   </si>
+  <si>
+    <t>title 712</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,23 +217,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,19 +553,19 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="7"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,17 +739,17 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -745,11 +763,11 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -908,10 +926,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,10 +956,10 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1245,10 +1263,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,10 +1440,10 @@
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1597,10 +1615,10 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,10 +1645,10 @@
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1936,10 +1954,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1960,10 +1978,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1984,10 +2002,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2060,10 +2078,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2084,10 +2102,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2108,10 +2126,10 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2207,10 +2225,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2231,10 +2249,10 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2255,10 +2273,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2277,10 +2295,10 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2325,10 +2343,10 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2373,10 +2391,10 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2472,10 +2490,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2496,10 +2514,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2520,10 +2538,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2596,10 +2614,10 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2620,10 +2638,10 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2644,10 +2662,10 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2720,10 +2738,10 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2744,10 +2762,10 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2768,10 +2786,10 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2790,10 +2808,10 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2838,10 +2856,10 @@
       <c r="I19">
         <v>5</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="2" t="s">
         <v>2</v>
       </c>
@@ -2886,10 +2904,10 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2991,10 +3009,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,10 +3177,10 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
@@ -3183,10 +3201,10 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3207,10 +3225,10 @@
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
@@ -3304,10 +3322,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3328,10 +3346,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3352,10 +3370,10 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3374,10 +3392,10 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,10 +3629,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3709,10 +3727,10 @@
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3748,10 +3766,10 @@
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3787,10 +3805,10 @@
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3809,10 +3827,10 @@
       <c r="T10">
         <v>5</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="W10" s="6"/>
+      <c r="W10" s="9"/>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,10 +3971,10 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
@@ -3992,10 +4010,10 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>2</v>
       </c>
@@ -4031,10 +4049,10 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
